--- a/day08/data/students.xlsx
+++ b/day08/data/students.xlsx
@@ -1,25 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="8000" yWindow="3900" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="人员表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁国柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘佳敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘四七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关小弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -48,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,13 +455,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>165</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>158</v>
+      </c>
+      <c r="F3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>179</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>180</v>
+      </c>
+      <c r="F5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>164</v>
+      </c>
+      <c r="F6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>178</v>
+      </c>
+      <c r="F7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>183</v>
+      </c>
+      <c r="F8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>165</v>
+      </c>
+      <c r="F9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>170</v>
+      </c>
+      <c r="F10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>190</v>
+      </c>
+      <c r="F11">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>